--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palab\source\repos\MyCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB0231A-934C-4C5D-A010-3BE61F41181A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC7D965-96C7-4900-A74C-F478844160C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="2715" windowWidth="13950" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Developer Changes" sheetId="1" r:id="rId1"/>
-    <sheet name="Design" sheetId="2" r:id="rId2"/>
+    <sheet name="Notes" sheetId="3" r:id="rId2"/>
+    <sheet name="Design" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Get Current LoggedIn User</t>
   </si>
@@ -62,19 +63,54 @@
   </si>
   <si>
     <t>Refresh Token</t>
+  </si>
+  <si>
+    <t>#NeedToLook</t>
+  </si>
+  <si>
+    <t>Remove ServiceProvider with ServiceLocator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate renew </t>
+  </si>
+  <si>
+    <t>sudo certbot renew --dry-run</t>
+  </si>
+  <si>
+    <t>MediaTypeFormatter</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>CreatedBy, ModifiedBy</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>Service Locator in BO</t>
+  </si>
+  <si>
+    <t>Delete Check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="VeraMono"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,12 +129,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE9E9E9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE9E9E9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE9E9E9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE9E9E9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,24 +433,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C11"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -404,49 +461,82 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -456,12 +546,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5765558E-0650-4601-A210-3E6FE56ABA41}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99ECCE87-20D2-48B3-BE11-F4ADA751CBAC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palab\source\repos\MyCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC7D965-96C7-4900-A74C-F478844160C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A9032-8840-4550-AB79-80AE106F047A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2715" windowWidth="13950" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Developer Changes" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Get Current LoggedIn User</t>
   </si>
@@ -92,7 +92,28 @@
     <t>Service Locator in BO</t>
   </si>
   <si>
-    <t>Delete Check</t>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>RoleId</t>
+  </si>
+  <si>
+    <t>SuperAdmin</t>
+  </si>
+  <si>
+    <t>Delete Check - response and not found error</t>
+  </si>
+  <si>
+    <t>Security Stamp?</t>
+  </si>
+  <si>
+    <t>Add Logging</t>
+  </si>
+  <si>
+    <t>LogOut</t>
   </si>
 </sst>
 </file>
@@ -433,95 +454,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:8">
       <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -529,14 +561,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>20</v>
       </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palab\source\repos\MyCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A9032-8840-4550-AB79-80AE106F047A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7033E5-FCA6-449F-80A0-10674CFFC744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
